--- a/InfinityThesisPracticeStimuli.xlsx
+++ b/InfinityThesisPracticeStimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestSlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4673864-6125-4A40-92ED-230128790661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F5D6A-04C3-ED4E-8AB6-4726A82146DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,10 +130,10 @@
     <t>Humans cannot eat food</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -653,6 +653,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -766,15 +775,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
@@ -791,6 +791,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -804,12 +812,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>